--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="esp_wifi_arduino" sheetId="1" r:id="rId1"/>
+    <sheet name="注文履歴" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>C4 C5</t>
   </si>
@@ -428,9 +429,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.switch-science.com/pcborder/</t>
-  </si>
-  <si>
     <t>D13 Lチカ用</t>
     <rPh sb="7" eb="8">
       <t>ヨウ</t>
@@ -444,6 +442,54 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.switch-science.com/pcborder/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SwitchScience 基板</t>
+    <rPh sb="14" eb="16">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マルツ ADG3304 10個</t>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋月小計</t>
+    <rPh sb="0" eb="2">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウガク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋月私物注文分</t>
+    <rPh sb="0" eb="2">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シブツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チュウモンブン</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -452,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +667,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1050,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1121,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1197,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:L18" totalsRowCount="1">
-  <autoFilter ref="A1:L18"/>
+  <autoFilter ref="A1:L17"/>
   <tableColumns count="12">
     <tableColumn id="1" name="部品名"/>
     <tableColumn id="4" name="パッケージ"/>
@@ -1427,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1470,7 +1530,7 @@
         <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
         <v>78</v>
@@ -1503,18 +1563,18 @@
         <v>10</v>
       </c>
       <c r="I2" s="4">
-        <f>ROUNDUP(IF(H2-F2&gt;0,1,F2/H2),0)</f>
+        <f t="shared" ref="I2:I17" si="0">ROUNDUP(IF(H2-F2&gt;0,1,F2/H2),0)</f>
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f>I2*G2</f>
+        <f t="shared" ref="J2:J17" si="1">I2*G2</f>
         <v>1389</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1544,11 +1604,11 @@
         <v>100</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUNDUP(IF(H3-F3&gt;0,1,F3/H3),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>I3*G3</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K3" t="s">
@@ -1575,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="0">E4*10</f>
+        <f t="shared" ref="F4:F17" si="2">E4*10</f>
         <v>10</v>
       </c>
       <c r="G4">
@@ -1585,11 +1645,11 @@
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUNDUP(IF(H4-F4&gt;0,1,F4/H4),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <f>I4*G4</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K4" t="s">
@@ -1616,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="G5">
@@ -1626,11 +1686,11 @@
         <v>200</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUNDUP(IF(H5-F5&gt;0,1,F5/H5),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>I5*G5</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K5" t="s">
@@ -1657,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G6">
@@ -1667,11 +1727,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUNDUP(IF(H6-F6&gt;0,1,F6/H6),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f>I6*G6</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K6" t="s">
@@ -1692,13 +1752,13 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G7">
@@ -1708,11 +1768,11 @@
         <v>20</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUNDUP(IF(H7-F7&gt;0,1,F7/H7),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>I7*G7</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K7" t="s">
@@ -1739,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G8">
@@ -1749,11 +1809,11 @@
         <v>2500</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUNDUP(IF(H8-F8&gt;0,1,F8/H8),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f>I8*G8</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="K8" t="s">
@@ -1780,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G9">
@@ -1790,11 +1850,11 @@
         <v>2500</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUNDUP(IF(H9-F9&gt;0,1,F9/H9),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f>I9*G9</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="K9" t="s">
@@ -1818,22 +1878,22 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>35</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2">
-        <f>ROUNDUP(IF(H10-F10&gt;0,1,F10/H10),0)</f>
-        <v>1</v>
-      </c>
       <c r="J10" s="2">
-        <f>I10*G10</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="K10" t="s">
         <v>58</v>
@@ -1859,21 +1919,21 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>140</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <f>ROUNDUP(IF(H11-F11&gt;0,1,F11/H11),0)</f>
-        <v>10</v>
-      </c>
       <c r="J11" s="2">
-        <f>I11*G11</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="K11" t="s">
@@ -1900,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G12">
@@ -1910,11 +1970,11 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>ROUNDUP(IF(H12-F12&gt;0,1,F12/H12),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J12" s="2">
-        <f>I12*G12</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="K12" t="s">
@@ -1941,21 +2001,21 @@
         <v>1</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>280</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>280</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <f>ROUNDUP(IF(H13-F13&gt;0,1,F13/H13),0)</f>
-        <v>10</v>
-      </c>
       <c r="J13" s="2">
-        <f>I13*G13</f>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="K13" t="s">
@@ -1982,21 +2042,21 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>550</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>550</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <f>ROUNDUP(IF(H14-F14&gt;0,1,F14/H14),0)</f>
-        <v>10</v>
-      </c>
       <c r="J14" s="2">
-        <f>I14*G14</f>
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="K14" t="s">
@@ -2023,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G15">
@@ -2033,11 +2093,11 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f>ROUNDUP(IF(H15-F15&gt;0,1,F15/H15),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J15" s="2">
-        <f>I15*G15</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="K15" t="s">
@@ -2064,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G16">
@@ -2074,11 +2134,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>ROUNDUP(IF(H16-F16&gt;0,1,F16/H16),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f>I16*G16</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="K16" t="s">
@@ -2105,21 +2165,21 @@
         <v>1</v>
       </c>
       <c r="F17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>240</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G17">
-        <v>240</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <f>ROUNDUP(IF(H17-F17&gt;0,1,F17/H17),0)</f>
-        <v>10</v>
-      </c>
       <c r="J17" s="2">
-        <f>I17*G17</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="K17" t="s">
@@ -2135,7 +2195,7 @@
       </c>
       <c r="J18" s="3">
         <f>SUBTOTAL(109,テーブル1[価格])</f>
-        <v>16774</v>
+        <v>17089</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -2157,11 +2217,103 @@
     <hyperlink ref="L14" r:id="rId13"/>
     <hyperlink ref="L15" r:id="rId14"/>
     <hyperlink ref="L17" r:id="rId15"/>
+    <hyperlink ref="L2" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>1713</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>3030</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>14300</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <f>-(3800+650+150+1200)</f>
+        <v>-5800</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="6">
+        <f>SUM(B2:B6)</f>
+        <v>14956</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>